--- a/note_attachments/02-后端框架/03-Spring/02-Spring注解汇总-相关表格.xlsx
+++ b/note_attachments/02-后端框架/03-Spring/02-Spring注解汇总-相关表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="@ComponentScan相关属性" sheetId="1" r:id="rId1"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`soperdProxy`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于指定bean生成时的代理方式。默认是Default，则不使用代理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,6 +398,10 @@
   </si>
   <si>
     <t>指定事务的隔离级别，一般都是使用默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`scopedProxy`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +576,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -977,25 +977,25 @@
     </row>
     <row r="9" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>|`soperdProxy`|用于指定bean生成时的代理方式。默认是Default，则不使用代理|可选值有4个：`DEFAULT`，`NO`，`INTERFACES`，`TARGET_CLASS`。详情请可查看spring源码的ScopedProxyMode枚举。|</v>
+        <v>|`scopedProxy`|用于指定bean生成时的代理方式。默认是Default，则不使用代理|可选值有4个：`DEFAULT`，`NO`，`INTERFACES`，`TARGET_CLASS`。详情请可查看spring源码的ScopedProxyMode枚举。|</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="D10" s="6"/>
       <c r="F10" s="4" t="str">
@@ -1005,10 +1005,10 @@
     </row>
     <row r="11" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="4" t="str">
@@ -1018,13 +1018,13 @@
     </row>
     <row r="12" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1033,10 +1033,10 @@
     </row>
     <row r="13" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="6"/>
       <c r="F13" s="4" t="str">
@@ -1046,10 +1046,10 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D14" s="6"/>
       <c r="F14" s="4" t="str">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="4" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6"/>
       <c r="F4" s="4" t="str">
@@ -1136,10 +1136,10 @@
     </row>
     <row r="5" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="4" t="str">
@@ -1149,10 +1149,10 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="4" t="str">
@@ -1162,13 +1162,13 @@
     </row>
     <row r="7" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="8" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="4" t="str">
@@ -1190,10 +1190,10 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6"/>
       <c r="F9" s="4" t="str">
@@ -1297,7 +1297,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="4" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6"/>
       <c r="F4" s="4" t="str">
@@ -1325,13 +1325,13 @@
     </row>
     <row r="5" spans="2:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1340,13 +1340,13 @@
     </row>
     <row r="6" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1355,13 +1355,13 @@
     </row>
     <row r="7" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="8" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="4" t="str">
@@ -1486,7 +1486,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6"/>
       <c r="F4" s="4" t="str">
@@ -1514,10 +1514,10 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="4" t="str">
@@ -1527,10 +1527,10 @@
     </row>
     <row r="6" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="4" t="str">
@@ -1540,10 +1540,10 @@
     </row>
     <row r="7" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="4" t="str">
@@ -1553,10 +1553,10 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="4" t="str">
@@ -1566,10 +1566,10 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6"/>
       <c r="F9" s="4" t="str">
@@ -1579,10 +1579,10 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="6"/>
       <c r="F10" s="4" t="str">
@@ -1677,7 +1677,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="4" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="4" t="str">
@@ -1720,13 +1720,13 @@
     </row>
     <row r="6" spans="2:7" ht="81" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1816,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="6"/>
       <c r="F4" s="4" t="str">
@@ -1884,10 +1884,10 @@
     </row>
     <row r="5" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="4" t="str">
@@ -1897,10 +1897,10 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="4" t="str">
@@ -1910,10 +1910,10 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="4" t="str">
@@ -1923,10 +1923,10 @@
     </row>
     <row r="8" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="4" t="str">
@@ -1936,13 +1936,13 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="6"/>
       <c r="F10" s="4" t="str">
@@ -1964,10 +1964,10 @@
     </row>
     <row r="11" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="4" t="str">
@@ -1977,10 +1977,10 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D12" s="6"/>
       <c r="F12" s="4" t="str">
@@ -1990,10 +1990,10 @@
     </row>
     <row r="13" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D13" s="6"/>
       <c r="F13" s="4" t="str">
